--- a/analysis/pre_gemini_data/participant180/medium.xlsx
+++ b/analysis/pre_gemini_data/participant180/medium.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,162 +422,158 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>conditional state</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>exception handling</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>external3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>externavarmethods</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>gem</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>literals</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>loop body2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>loop stat2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>loop state</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>method declar</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>methodcal1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>methodcal2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methodcal3</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methodcal4</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodcal5</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
@@ -642,26 +626,26 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -670,57 +654,57 @@
         <v>28</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>1</v>
       </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
       <c r="W3" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA3" t="n">
         <v>4</v>
       </c>
-      <c r="Z3" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>8</v>
-      </c>
       <c r="AB3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>3</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -732,26 +716,26 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>395</v>
+        <v>279</v>
       </c>
       <c r="H4" t="n">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J4" t="n">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="K4" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -760,57 +744,57 @@
         <v>187</v>
       </c>
       <c r="N4" t="n">
+        <v>14</v>
+      </c>
+      <c r="O4" t="n">
+        <v>222</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>29</v>
+      </c>
+      <c r="R4" t="n">
         <v>22</v>
-      </c>
-      <c r="O4" t="n">
-        <v>320</v>
-      </c>
-      <c r="P4" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>36</v>
-      </c>
-      <c r="R4" t="n">
-        <v>27</v>
       </c>
       <c r="S4" t="n">
         <v>8</v>
       </c>
       <c r="T4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -822,26 +806,26 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>6621.86</v>
+        <v>3885.26</v>
       </c>
       <c r="E5" t="n">
         <v>233.61</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>98068.07000000001</v>
+        <v>70456.31</v>
       </c>
       <c r="H5" t="n">
-        <v>57791.88</v>
+        <v>41941.32</v>
       </c>
       <c r="I5" t="n">
-        <v>8125.16</v>
+        <v>6339.72</v>
       </c>
       <c r="J5" t="n">
-        <v>57625.97</v>
+        <v>40974.45</v>
       </c>
       <c r="K5" t="n">
-        <v>8274.299999999999</v>
+        <v>5387.84</v>
       </c>
       <c r="L5" t="n">
         <v>233.61</v>
@@ -850,57 +834,57 @@
         <v>84854.85000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>4252.37</v>
+        <v>2600.57</v>
       </c>
       <c r="O5" t="n">
-        <v>79396.75999999999</v>
+        <v>57541.25</v>
       </c>
       <c r="P5" t="n">
-        <v>7274.7</v>
+        <v>4521.52</v>
       </c>
       <c r="Q5" t="n">
-        <v>8592.139999999999</v>
+        <v>7440.98</v>
       </c>
       <c r="R5" t="n">
-        <v>7624.3</v>
+        <v>6022.83</v>
       </c>
       <c r="S5" t="n">
         <v>2969.83</v>
       </c>
       <c r="T5" t="n">
-        <v>2819.96</v>
+        <v>2319.26</v>
       </c>
       <c r="U5" t="n">
-        <v>867.64</v>
+        <v>667.38</v>
       </c>
       <c r="V5" t="n">
-        <v>550.5700000000001</v>
+        <v>400.46</v>
       </c>
       <c r="W5" t="n">
-        <v>9160.299999999999</v>
+        <v>7124.75</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>2402.61</v>
+        <v>1818.66</v>
       </c>
       <c r="Z5" t="n">
-        <v>122666.71</v>
+        <v>119678.58</v>
       </c>
       <c r="AA5" t="n">
-        <v>3103.94</v>
+        <v>2019.44</v>
       </c>
       <c r="AB5" t="n">
-        <v>1117.7</v>
+        <v>734.03</v>
       </c>
       <c r="AC5" t="n">
-        <v>350.43</v>
+        <v>200.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>2936.25</v>
+        <v>1918.66</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>1935.26</v>
+        <v>1685.01</v>
       </c>
     </row>
     <row r="6">
@@ -912,85 +896,85 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>18.55</v>
+        <v>22.83</v>
       </c>
       <c r="H6" t="n">
-        <v>10.93</v>
+        <v>13.59</v>
       </c>
       <c r="I6" t="n">
-        <v>1.54</v>
+        <v>2.05</v>
       </c>
       <c r="J6" t="n">
-        <v>10.9</v>
+        <v>13.27</v>
       </c>
       <c r="K6" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="M6" t="n">
         <v>38.56</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="O6" t="n">
-        <v>15.02</v>
+        <v>18.64</v>
       </c>
       <c r="P6" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>2.41</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="T6" t="n">
-        <v>0.53</v>
+        <v>0.75</v>
       </c>
       <c r="U6" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.73</v>
+        <v>2.31</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.2</v>
+        <v>38.77</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7">
@@ -1002,26 +986,26 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>220.73</v>
+        <v>215.85</v>
       </c>
       <c r="E7" t="n">
         <v>233.61</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>248.27</v>
+        <v>252.53</v>
       </c>
       <c r="H7" t="n">
-        <v>244.88</v>
+        <v>257.31</v>
       </c>
       <c r="I7" t="n">
-        <v>262.1</v>
+        <v>288.17</v>
       </c>
       <c r="J7" t="n">
-        <v>248.39</v>
+        <v>262.66</v>
       </c>
       <c r="K7" t="n">
-        <v>258.57</v>
+        <v>269.39</v>
       </c>
       <c r="L7" t="n">
         <v>233.61</v>
@@ -1030,57 +1014,57 @@
         <v>453.77</v>
       </c>
       <c r="N7" t="n">
-        <v>193.29</v>
+        <v>185.76</v>
       </c>
       <c r="O7" t="n">
-        <v>248.11</v>
+        <v>259.19</v>
       </c>
       <c r="P7" t="n">
-        <v>234.67</v>
+        <v>251.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>238.67</v>
+        <v>256.59</v>
       </c>
       <c r="R7" t="n">
-        <v>282.38</v>
+        <v>273.77</v>
       </c>
       <c r="S7" t="n">
         <v>371.23</v>
       </c>
       <c r="T7" t="n">
-        <v>235</v>
+        <v>257.7</v>
       </c>
       <c r="U7" t="n">
-        <v>433.82</v>
+        <v>667.38</v>
       </c>
       <c r="V7" t="n">
-        <v>137.64</v>
+        <v>133.49</v>
       </c>
       <c r="W7" t="n">
-        <v>366.41</v>
+        <v>395.82</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>343.23</v>
+        <v>363.73</v>
       </c>
       <c r="Z7" t="n">
-        <v>369.48</v>
+        <v>383.59</v>
       </c>
       <c r="AA7" t="n">
-        <v>344.88</v>
+        <v>403.89</v>
       </c>
       <c r="AB7" t="n">
-        <v>279.43</v>
+        <v>244.68</v>
       </c>
       <c r="AC7" t="n">
-        <v>175.21</v>
+        <v>200.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>367.03</v>
+        <v>383.73</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>387.05</v>
+        <v>421.25</v>
       </c>
     </row>
     <row r="8">
@@ -1207,40 +1191,6 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
